--- a/src/ACAT/assessment_results/COMP-308_FA24_01_outcomes.xlsx
+++ b/src/ACAT/assessment_results/COMP-308_FA24_01_outcomes.xlsx
@@ -491,10 +491,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Student_16</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="B2" t="n">
         <v>5</v>
@@ -531,10 +529,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Student_17</t>
-        </is>
+      <c r="A3" s="1" t="n">
+        <v>12</v>
       </c>
       <c r="B3" t="n">
         <v>4</v>
@@ -571,10 +567,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Student_18</t>
-        </is>
+      <c r="A4" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="B4" t="n">
         <v>5</v>
@@ -611,10 +605,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Student_19</t>
-        </is>
+      <c r="A5" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -651,10 +643,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Student_20</t>
-        </is>
+      <c r="A6" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
